--- a/biology/Mycologie/Stipe_(champignon)/Stipe_(champignon).xlsx
+++ b/biology/Mycologie/Stipe_(champignon)/Stipe_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En mycologie, le stipe, appelé plus communément le pied, est l'organe qui supporte le chapeau chez de nombreux basidiomycètes et quelques ascomycètes. Un champignon qui a un pied est dit stipité. L'ensemble du pied et du chapeau forme le sporophore.
 Le stipe peut présenter divers aspects et porter un anneau et/ou une volve, restes de la membrane qui enveloppe le sporophore à l'état jeune. Sa forme, et celle de sa base, sa position par rapport au chapeau, son ornementation, sa texture et sa couleur sont d'importants caractères pour la détermination des champignons. L'identification peut aussi faire appel à des caractères macroscopiques comme la couleur, la dimension et la forme des hyphes, ou à des réactions de la chair du pied lorsqu'on l'expose à l'air et/ou au contact de certains produits chimiques.
@@ -512,7 +524,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale fonction du stipe est de surélever le chapeau au-dessus du sol pour faciliter la dissémination des spores par le vent.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères macroscopiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principaux caractères du stipe sont sa forme (bulbeux, ventru), la présence d'éventuelles cavités (creux), l'aspect de sa base (marginé, immarginé, radicant ou encore napiforme), son ornementation (réticulé, furfuracé, scrobiculé) sa couleur, sa concrescence.
 </t>
@@ -576,18 +592,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ventru
-Un stipe est ventru ou obèse lorsqu'il présente un pied enflé ou pansu. C'est une forme typique des sporophores boletoïdes, de certains Tricholoma et Cortinarius.
+          <t>Ventru</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un stipe est ventru ou obèse lorsqu'il présente un pied enflé ou pansu. C'est une forme typique des sporophores boletoïdes, de certains Tricholoma et Cortinarius.
 			Stipe ventru
 			Boletus edulis
 			Boletus erythropus
 			Tricholoma focale
-Clavé
-Le stipe a une forme de massue.
-			Lycoperdon perlatum
-Fusiforme
-Le stipe est fusiforme s'il affecte la forme d'un fuseau, c'est-à-dire atténué aux deux extrémités (et non à une seule) comme chez Collybia fusipes.
-			Collybia fusipes
 </t>
         </is>
       </c>
@@ -613,87 +628,624 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Forme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Clavé</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe a une forme de massue.
+			Lycoperdon perlatum
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Forme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fusiforme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe est fusiforme s'il affecte la forme d'un fuseau, c'est-à-dire atténué aux deux extrémités (et non à une seule) comme chez Collybia fusipes.
+			Collybia fusipes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Position par rapport au chapeau</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cavités et texture
-En fait la gamme d'épithètes plus spécialisées précisant la forme d'une cavité est telle que l'adjectif creux paraît souvent désuet[1].
-Cave
-Le stipe est caverneux lorsqu'il présente une grande partie du pied entièrement creuse[2].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cavités et texture</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En fait la gamme d'épithètes plus spécialisées précisant la forme d'une cavité est telle que l'adjectif creux paraît souvent désuet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Position par rapport au chapeau</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cavités et texture</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cave</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe est caverneux lorsqu'il présente une grande partie du pied entièrement creuse.
 			Morchella elataStipe cave
-Creux
-En latin cavi-pes, pied creux. Dans les ascomycètes, le genre morchella, les morilles, verpes et morillons ont typiquement un pied creux[3]. Dans les basidiomycètes, on trouve notamment cette caractéristique chez les genres russula (Russula cavipes) et lactarius ou encore Boletus cavipes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Position par rapport au chapeau</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cavités et texture</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Creux</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En latin cavi-pes, pied creux. Dans les ascomycètes, le genre morchella, les morilles, verpes et morillons ont typiquement un pied creux. Dans les basidiomycètes, on trouve notamment cette caractéristique chez les genres russula (Russula cavipes) et lactarius ou encore Boletus cavipes.
 			Lactarius deliciosusStipe creux
 			Russula betularumStipe creux
 			Suillus cavipesStipe creux
-Caverneux
-Le stipe est caverneux lorsqu'il présente, sur les sections qu'on en examine, de grosses lacunes irrégulières[4]. On retrouve cette caractéristique chez les ascomycètes du genre Verpa et chez les basidiomycètes du genre Russula.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Position par rapport au chapeau</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cavités et texture</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Caverneux</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe est caverneux lorsqu'il présente, sur les sections qu'on en examine, de grosses lacunes irrégulières. On retrouve cette caractéristique chez les ascomycètes du genre Verpa et chez les basidiomycètes du genre Russula.
 			Verpa bohemica  Stipe caverneux
 			Gyromitra caroliniana
-Fistuleux
-Le stipe est transversalement cloisonné en lacunes successives[5].
-Farci
-Le stipe d'un Basidiomycète est farci quand la partie centrale du pied est constituée d'une moelle de structure plus aérifère, ou plus molle, que le cortex[6].
-Tubuleux
-[3]
-Fibreux
-Un pied fibreux rendra cette partie du champignon immangeable chez les comestibles, comme chez Kuehneromyces mutabilis, Laccaria laccata, ou encore Armillaria mellea jeune; chez Boletus erythropus, il est plus fibreux en se rapprochant de la base[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Position par rapport au chapeau</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cavités et texture</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Fistuleux</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe est transversalement cloisonné en lacunes successives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Position par rapport au chapeau</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cavités et texture</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Farci</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe d'un Basidiomycète est farci quand la partie centrale du pied est constituée d'une moelle de structure plus aérifère, ou plus molle, que le cortex.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Position par rapport au chapeau</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cavités et texture</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tubuleux</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Position par rapport au chapeau</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cavités et texture</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Fibreux</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un pied fibreux rendra cette partie du champignon immangeable chez les comestibles, comme chez Kuehneromyces mutabilis, Laccaria laccata, ou encore Armillaria mellea jeune; chez Boletus erythropus, il est plus fibreux en se rapprochant de la base.
 			Armillaria ostoyae pied fibreux
 			Kuehneromyces mutabilis pied fibreux de la pholiotte
-Cassant
-Chez certains champignons le pied est fragile et va se briser net sous la pression, caractéristique spécifique de beaucoup de Russulaceae.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Stipe_(champignon)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Position par rapport au chapeau</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cavités et texture</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cassant</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez certains champignons le pied est fragile et va se briser net sous la pression, caractéristique spécifique de beaucoup de Russulaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Base</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec rhizomorphes
-Le stipe se termine par une agglomération de ficelles, de cordonnets[8].
-Bulbilleux
-Marginé
-Un stipe est marginé lorsqu'il présente une marge à sa base, souvent créée par un reste de volve. Lorsque le bulbe est brusquement limité par un bourrelet anguleux[9].
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Avec rhizomorphes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe se termine par une agglomération de ficelles, de cordonnets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Marginé</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un stipe est marginé lorsqu'il présente une marge à sa base, souvent créée par un reste de volve. Lorsque le bulbe est brusquement limité par un bourrelet anguleux.
 			Stipe marginé
 			Amanita caesareoidesStipe marginé
 			Amanita croceaStipe marginé
-Immarginé ou bulbeux
-Un stipe est immarginé ou bulbeux lorsqu'il présente un renflement à sa base.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Immarginé ou bulbeux</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un stipe est immarginé ou bulbeux lorsqu'il présente un renflement à sa base.
 			Stipe bulbeux ou immarginé
 			Cortinarius violaceusstipe bulbeux
 			Amanita muscaria stipe bulbeux
-Radicant
-Un stipe est radicant lorsque la base du pied se termine comme une racine effilée. On le trouve notamment chez Sparassis crispa, Cortinarius argutus, Boletus radicans, Hebeloma radicosum, Cortinarius duracinus, Polyporus radicatus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Radicant</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un stipe est radicant lorsque la base du pied se termine comme une racine effilée. On le trouve notamment chez Sparassis crispa, Cortinarius argutus, Boletus radicans, Hebeloma radicosum, Cortinarius duracinus, Polyporus radicatus.
 			Stipe radicant
 			Boletus radicansStipe radicant
 			Hebeloma radicosumStipe radicant
-Napiforme
-Un stipe est napiforme si la base de son pied présente une forme de toupie ou d'un navet[10], comme chez Inocybe napipes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Napiforme</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un stipe est napiforme si la base de son pied présente une forme de toupie ou d'un navet, comme chez Inocybe napipes.
 			Stipe napiforme
 			Amanita daucipes
 			Amanita franchetii
@@ -701,92 +1253,310 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Stipe_(champignon)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Ornementation du stipe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réticulé
-Un stipe est dit réticulé lorsqu'il présente un maillage fin sur sa surface dont les crêtes peuvent prendre une couleur différente[11]. La réticulation est souvent plus forte et plus colorée au pied du stipe. On trouve cette caractéristique chez les genres Phallus, parmi les ascomycètes, et Boletus, parmi les basidiomycètes, comme par ex. Boletus torosus. Les crêtes du maillage peuvent être concolores comme chez Boletus regius ou plus prononcées au pied du stipe comme chez Boletus reticulatus.
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Réticulé</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un stipe est dit réticulé lorsqu'il présente un maillage fin sur sa surface dont les crêtes peuvent prendre une couleur différente. La réticulation est souvent plus forte et plus colorée au pied du stipe. On trouve cette caractéristique chez les genres Phallus, parmi les ascomycètes, et Boletus, parmi les basidiomycètes, comme par ex. Boletus torosus. Les crêtes du maillage peuvent être concolores comme chez Boletus regius ou plus prononcées au pied du stipe comme chez Boletus reticulatus.
 			Stipe Réticulé
 			Boletus reticulatus Stipe réticulé, crête concolore
 			Boletus satanas Stipe réticulé, crête rouge
 			Heimioporus betula Stipe réticulé, crête jaune
-Scabreux
-Un stipe est dit scabreux lorsqu'il présente une surface rude et rabotée : il est couvert de petites saillies rigides qui donnent une texture rugueuse. On trouve cette caractéristique typique chez quelques genres de Boletaceae. Chez les genres Leccinum et Leccinellum le pied est blanc et recouvert de très légères saillies noires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Ornementation du stipe</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Scabreux</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un stipe est dit scabreux lorsqu'il présente une surface rude et rabotée : il est couvert de petites saillies rigides qui donnent une texture rugueuse. On trouve cette caractéristique typique chez quelques genres de Boletaceae. Chez les genres Leccinum et Leccinellum le pied est blanc et recouvert de très légères saillies noires.
 			Leccinum sp. Stipe scabreux
 			Leccinum versipelle Stipe scabreux
 			Leccinum carpini Stipe scabreux
-Furfuracé
-Un stipe est furfuracé lorsqu'il présente une surface recouverte ou composée de petites squames poudreuses, souvent blanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ornementation du stipe</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Furfuracé</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un stipe est furfuracé lorsqu'il présente une surface recouverte ou composée de petites squames poudreuses, souvent blanches.
 On trouve des exemples chez la base du pied de certaines amanites comme chez Amanita cokery et sur les pieds de certaines morilles comme Morchella conica. Sur le pied de Xerula furfuracea elles sont brunes. C'est une caractéristique des Cystoderma.
 			Stipe furfuracé
 			Amanita cokery
 			Amanita muscaria
 			Cystoderma amianthinum
 			Cystoderma fallax
-Strigueux
-Un stipe est strigueux ou hirsute lorsqu'il présente une surface hérissée de poils courts, raides et grossiers. La densité du poil est moindre chez le stipe strigueux. Cette caractéristique se rencontre chez les Mycena[12]
-Scrobiculé
-Un stipe est scrobiculé lorsqu'il présente une surface creusée de petites fossettes irrégulières[13]. On trouve cette particularité chez de nombreux Lactarius, comme Lactarius scrobiculatus, Lactarius deliciosus ou encore Hydnellum scrobiculatum. Les scrobicules (fossettes) prennent une couleur plus foncée. Leur présence est très variable et ne constitue pas un caractère déterminant. Quand ils existent en quantité, ils sont allongés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Ornementation du stipe</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Strigueux</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un stipe est strigueux ou hirsute lorsqu'il présente une surface hérissée de poils courts, raides et grossiers. La densité du poil est moindre chez le stipe strigueux. Cette caractéristique se rencontre chez les Mycena
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Ornementation du stipe</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Scrobiculé</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un stipe est scrobiculé lorsqu'il présente une surface creusée de petites fossettes irrégulières. On trouve cette particularité chez de nombreux Lactarius, comme Lactarius scrobiculatus, Lactarius deliciosus ou encore Hydnellum scrobiculatum. Les scrobicules (fossettes) prennent une couleur plus foncée. Leur présence est très variable et ne constitue pas un caractère déterminant. Quand ils existent en quantité, ils sont allongés.
 			Stipe scrobiculé
 			Lactarius deliciosus
 			Lactarius salmonicolorStipe creux et scrobiculé
-Écailleux
-Le stipe écailleux de l'Hebeloma radicosum présente des écailles[14].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Stipe_(champignon)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ornementation du stipe</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Écailleux</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe écailleux de l'Hebeloma radicosum présente des écailles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Stipes coalescents</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les stipes sont coalescents si deux ou plusieurs stipes adhèrent les uns aux autres ; plus courts, ils se ramifient sur un pied commun auquel ils sont soudés[15]. Il ne faut pas confondre avec les sporophores grégaires de type connés, uniquement soudés à la base du stipe ou cespiteux, où plusieurs sporophores sont agglomérés à la base du stipe. On trouve cette forme soudée des pieds chez Hydnellum concrescens ou encore parfois chez Clitocybe nebularis, Calocybe gambosa ou Hydnum repandum. Il ne faut pas non plus confondre avec des chapeaux soudés entre eux qui sont alors dits concrescents. Ces deux caractéristiques peuvent apparaître ensemble, chez les Hydnum par exemple.
-Exemple
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les stipes sont coalescents si deux ou plusieurs stipes adhèrent les uns aux autres ; plus courts, ils se ramifient sur un pied commun auquel ils sont soudés. Il ne faut pas confondre avec les sporophores grégaires de type connés, uniquement soudés à la base du stipe ou cespiteux, où plusieurs sporophores sont agglomérés à la base du stipe. On trouve cette forme soudée des pieds chez Hydnellum concrescens ou encore parfois chez Clitocybe nebularis, Calocybe gambosa ou Hydnum repandum. Il ne faut pas non plus confondre avec des chapeaux soudés entre eux qui sont alors dits concrescents. Ces deux caractéristiques peuvent apparaître ensemble, chez les Hydnum par exemple.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Stipes coalescents</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Exemple</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			stipes concrescents
 			Hydnum repandumstipes concrescents
 			Clitocybe nebularisstipes concrescents
@@ -796,68 +1566,145 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Stipe_(champignon)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Couleur du stipe</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Concolore
-Le pied a la même couleur que le chapeau
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Concolore</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pied a la même couleur que le chapeau
 Calocybe gambosa ou Hydnum repandum.
-Couleurs dégressives
-La base du pied présente une couleur différente de celle du haut du pied.
-Couleurs variables
-Toucher le stipe va modifier sa couleur.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Stipe_(champignon)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Couleur du stipe</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Couleurs dégressives</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base du pied présente une couleur différente de celle du haut du pied.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Couleur du stipe</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Couleurs variables</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toucher le stipe va modifier sa couleur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Anneau, voile, jupe</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Déliquescent
@@ -866,8 +1713,43 @@
 			Libre
 			Double
 			Gainé
-Voile
-Jupe
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stipe_(champignon)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Anneau, voile, jupe</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Jupe</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Phallus indusiatus Jupe réticulée
 </t>
         </is>
